--- a/Documentation/Tasks.xlsx
+++ b/Documentation/Tasks.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
   <si>
     <t>Amarandei Sonia-Angela</t>
   </si>
@@ -49,6 +49,51 @@
   </si>
   <si>
     <t>PL\SQL</t>
+  </si>
+  <si>
+    <t>Back-End</t>
+  </si>
+  <si>
+    <t>JAVA</t>
+  </si>
+  <si>
+    <t>MAP</t>
+  </si>
+  <si>
+    <t>Google-Map</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>Responsive</t>
+  </si>
+  <si>
+    <t>Index-Page</t>
+  </si>
+  <si>
+    <t>About-Page</t>
+  </si>
+  <si>
+    <t>Register-Page</t>
+  </si>
+  <si>
+    <t>Login-Page</t>
+  </si>
+  <si>
+    <t>Map-Index</t>
+  </si>
+  <si>
+    <t>Video</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>Pictures</t>
+  </si>
+  <si>
+    <t>HTML5+CSS3+JS+JAVA</t>
   </si>
 </sst>
 </file>
@@ -72,7 +117,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -228,29 +273,39 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,7 +626,7 @@
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -585,10 +640,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -602,10 +657,10 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -618,36 +673,151 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="A5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="A6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
